--- a/Data/Testdata.xlsx
+++ b/Data/Testdata.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52089263\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="4260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="1530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -32,9 +28,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>a.jaiswal</t>
-  </si>
-  <si>
     <t>m.jaiswal</t>
   </si>
   <si>
@@ -45,6 +38,12 @@
   </si>
   <si>
     <t>ankit</t>
+  </si>
+  <si>
+    <t>ankitjaiswal2909</t>
+  </si>
+  <si>
+    <t>Ankit@2909</t>
   </si>
 </sst>
 </file>
@@ -391,7 +390,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,38 +410,38 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="2"/>
     </row>
